--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A592D488-3A6C-479A-99B4-5BD910C82EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0924F-33E2-497D-9BEF-52D0B490D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>long</t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>[101:3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新旧笔记条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +491,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -618,12 +622,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0924F-33E2-497D-9BEF-52D0B490D3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F3E9F-A223-4577-9383-DB60F051C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24570" yWindow="2145" windowWidth="7200" windowHeight="3975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>long</t>
   </si>
@@ -113,6 +113,84 @@
   </si>
   <si>
     <t>更新旧笔记条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-1</t>
+  </si>
+  <si>
+    <t>[1004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006]</t>
+  </si>
+  <si>
+    <t>[1007]</t>
+  </si>
+  <si>
+    <t>[1008]</t>
+  </si>
+  <si>
+    <t>[1009]</t>
+  </si>
+  <si>
+    <t>[1010]</t>
+  </si>
+  <si>
+    <t>[1011]</t>
+  </si>
+  <si>
+    <t>[1012]</t>
+  </si>
+  <si>
+    <t>[1013]</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-2</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-3</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-4</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-5</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-6</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-7</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-8</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-9</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-A-10</t>
+  </si>
+  <si>
+    <t>Sure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He will.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,22 +566,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -537,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -554,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -571,7 +649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -588,7 +666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -605,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -622,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -637,6 +715,176 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>103</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1">
+        <v>103</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>103</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F3E9F-A223-4577-9383-DB60F051C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5394C1-09A5-4026-806C-179343FA9D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24570" yWindow="2145" windowWidth="7200" windowHeight="3975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26970" yWindow="-285" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>long</t>
   </si>
@@ -191,6 +200,234 @@
   </si>
   <si>
     <t>......?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-3</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-4</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-5</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-6</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-7</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-8</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-9</t>
+  </si>
+  <si>
+    <t>[1015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1016]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1017]</t>
+  </si>
+  <si>
+    <t>[1018]</t>
+  </si>
+  <si>
+    <t>[1019]</t>
+  </si>
+  <si>
+    <t>[1020]</t>
+  </si>
+  <si>
+    <t>[1021]</t>
+  </si>
+  <si>
+    <t>[1022]</t>
+  </si>
+  <si>
+    <t>[1023]</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-10</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-11</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-12</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-13</t>
+  </si>
+  <si>
+    <t>Jump-VillageBoy-B-14</t>
+  </si>
+  <si>
+    <t>[1024]</t>
+  </si>
+  <si>
+    <t>[1025]</t>
+  </si>
+  <si>
+    <t>[1026]</t>
+  </si>
+  <si>
+    <t>[1027]</t>
+  </si>
+  <si>
+    <t>[1028]</t>
+  </si>
+  <si>
+    <t>But…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our task.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If we failed…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can't risk here...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He needs no help…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is his war too…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-DangerousMission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1030]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1031]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1032]</t>
+  </si>
+  <si>
+    <t>[1033]</t>
+  </si>
+  <si>
+    <t>[1034]</t>
+  </si>
+  <si>
+    <t>[1035]</t>
+  </si>
+  <si>
+    <t>[1036]</t>
+  </si>
+  <si>
+    <t>[1037]</t>
+  </si>
+  <si>
+    <t>[1038]</t>
+  </si>
+  <si>
+    <t>[1039]</t>
+  </si>
+  <si>
+    <t>[1040]</t>
+  </si>
+  <si>
+    <t>[1041]</t>
+  </si>
+  <si>
+    <t>（He's so quite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（I should encourage him)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am glad...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not true.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1043]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1045]</t>
+  </si>
+  <si>
+    <t>[1046]</t>
+  </si>
+  <si>
+    <t>[1047]</t>
+  </si>
+  <si>
+    <t>[1048]</t>
+  </si>
+  <si>
+    <t>[1049]</t>
+  </si>
+  <si>
+    <t>[1050]</t>
+  </si>
+  <si>
+    <t>[1044]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump-DefensiveBreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(He's right…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Motherland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -887,6 +1124,584 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1">
+        <v>103</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1">
+        <v>103</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1">
+        <v>103</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1">
+        <v>103</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1">
+        <v>103</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1">
+        <v>103</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1">
+        <v>103</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>103</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1">
+        <v>103</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1">
+        <v>103</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1">
+        <v>103</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1">
+        <v>103</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="1">
+        <v>103</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="1">
+        <v>103</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="1">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1">
+        <v>103</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1">
+        <v>103</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="1">
+        <v>103</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="1">
+        <v>103</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1">
+        <v>103</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="1">
+        <v>103</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1">
+        <v>103</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="1">
+        <v>103</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5394C1-09A5-4026-806C-179343FA9D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EFDE6-8AA5-4162-AA2B-F6942D6D0BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26970" yWindow="-285" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1785" yWindow="5490" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
   <si>
     <t>long</t>
   </si>
@@ -428,6 +428,10 @@
   </si>
   <si>
     <t>For Motherland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock Village A part1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1702,6 +1706,23 @@
         <v>109</v>
       </c>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="1">
+        <v>102</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EFDE6-8AA5-4162-AA2B-F6942D6D0BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AA39A2-800D-4608-988A-E8176377974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1785" yWindow="5490" windowWidth="3600" windowHeight="1995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t>long</t>
   </si>
@@ -432,6 +432,30 @@
   </si>
   <si>
     <t>unlock Village A part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock Village A part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock Village B part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock Village B part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[104]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1723,6 +1747,57 @@
         <v>22</v>
       </c>
     </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="1">
+        <v>102</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="1">
+        <v>102</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="1">
+        <v>102</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AA39A2-800D-4608-988A-E8176377974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D04CF17-2A9B-4839-985F-B5A86E9A9050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2250" yWindow="2265" windowWidth="2040" windowHeight="1005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1798,6 +1798,16 @@
         <v>122</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D04CF17-2A9B-4839-985F-B5A86E9A9050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC913AF-8017-4273-9039-1A71C9F7D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2250" yWindow="2265" windowWidth="2040" windowHeight="1005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
   <si>
     <t>long</t>
   </si>
@@ -457,6 +457,33 @@
   <si>
     <t>[104]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock day5event2 part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock day5event2 part2</t>
+  </si>
+  <si>
+    <t>unlock day5event3 part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock day5event3 part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[105]</t>
+  </si>
+  <si>
+    <t>[106]</t>
+  </si>
+  <si>
+    <t>[107]</t>
+  </si>
+  <si>
+    <t>[108]</t>
   </si>
 </sst>
 </file>
@@ -831,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1802,10 +1829,68 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="1">
+        <v>102</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="1">
+        <v>102</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="1">
+        <v>102</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="1">
+        <v>102</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC913AF-8017-4273-9039-1A71C9F7D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438B8BA-8121-4E5C-BA50-7B8CFEE0BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="175">
   <si>
     <t>long</t>
   </si>
@@ -484,6 +484,166 @@
   </si>
   <si>
     <t>[108]</t>
+  </si>
+  <si>
+    <t>Jump - Halo_Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excuse me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not really.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I'll leavr him for now)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1063]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1064]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1065]</t>
+  </si>
+  <si>
+    <t>[1066]</t>
+  </si>
+  <si>
+    <t>[1067]</t>
+  </si>
+  <si>
+    <t>Jump - Wetherall_Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your foot?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1053]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1054]</t>
+  </si>
+  <si>
+    <t>[1055]</t>
+  </si>
+  <si>
+    <t>[1056]</t>
+  </si>
+  <si>
+    <t>[1057]</t>
+  </si>
+  <si>
+    <t>[1058]</t>
+  </si>
+  <si>
+    <t>[1059]</t>
+  </si>
+  <si>
+    <t>[1060]</t>
+  </si>
+  <si>
+    <t>[1061]</t>
+  </si>
+  <si>
+    <t>Your boots?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1068]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here, have mine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You deserve it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1069]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1070]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1071]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Did he hear me?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump - Kicks_Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are you doing?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Religious type?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1073]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1074]</t>
+  </si>
+  <si>
+    <t>[1075]</t>
+  </si>
+  <si>
+    <t>[1076]</t>
+  </si>
+  <si>
+    <t>[1077]</t>
+  </si>
+  <si>
+    <t>[1078]</t>
+  </si>
+  <si>
+    <t>Effect-MoraleUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect-ResourceDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002:1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -858,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1893,6 +2053,465 @@
         <v>130</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="1">
+        <v>103</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="1">
+        <v>103</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1">
+        <v>103</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1">
+        <v>103</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="1">
+        <v>103</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="1">
+        <v>103</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="1">
+        <v>103</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1">
+        <v>103</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="1">
+        <v>103</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="1">
+        <v>103</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="1">
+        <v>103</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="1">
+        <v>103</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="1">
+        <v>103</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="1">
+        <v>103</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="1">
+        <v>103</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="1">
+        <v>103</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="1">
+        <v>103</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="1">
+        <v>103</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1">
+        <v>103</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="1">
+        <v>103</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="1">
+        <v>103</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="1">
+        <v>103</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="1">
+        <v>103</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="1">
+        <v>103</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="1">
+        <v>103</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="1">
+        <v>100</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="1">
+        <v>101</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438B8BA-8121-4E5C-BA50-7B8CFEE0BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3BBE42-61B0-4510-A37E-122F0215C527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="177">
   <si>
     <t>long</t>
   </si>
@@ -643,6 +643,14 @@
   </si>
   <si>
     <t>[-50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GotoEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,22 +1026,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1203,7 +1211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1288,7 +1296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1509,7 +1517,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1577,7 +1585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1594,7 +1602,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1662,7 +1670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1696,7 +1704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1713,7 +1721,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1730,7 +1738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1815,7 +1823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1849,7 +1857,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1866,7 +1874,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1900,7 +1908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1985,7 +1993,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2019,7 +2027,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2036,7 +2044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2053,7 +2061,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2070,7 +2078,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2121,7 +2129,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2138,7 +2146,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2155,7 +2163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2172,7 +2180,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2189,7 +2197,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2206,7 +2214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2223,7 +2231,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2257,7 +2265,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2308,7 +2316,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2359,7 +2367,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2393,7 +2401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2427,7 +2435,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2444,7 +2452,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2461,7 +2469,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2510,6 +2518,23 @@
       </c>
       <c r="E87" s="1" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="1">
+        <v>104</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3BBE42-61B0-4510-A37E-122F0215C527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5BDC65-74B0-45E3-B083-02AF1D3706D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="345" windowWidth="14175" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
   <si>
     <t>long</t>
   </si>
@@ -651,6 +651,37 @@
   </si>
   <si>
     <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_Wetherall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feets OK?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_Echo_Halo</t>
+  </si>
+  <si>
+    <t>D2_Echo_Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1080]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1081]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1082]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You did well</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +731,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,6 +781,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,22 +1066,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1092,7 +1132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1109,7 +1149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1126,7 +1166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1143,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1160,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1177,7 +1217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1194,7 +1234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1211,7 +1251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1228,7 +1268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1245,7 +1285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1262,7 +1302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1279,7 +1319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1296,7 +1336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1313,7 +1353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1330,7 +1370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1347,7 +1387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1364,7 +1404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1381,7 +1421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1398,7 +1438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1415,7 +1455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1432,7 +1472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1449,7 +1489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1466,7 +1506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1483,7 +1523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1500,7 +1540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1517,7 +1557,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1534,7 +1574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1551,7 +1591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1568,7 +1608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1585,7 +1625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1602,7 +1642,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1619,7 +1659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1636,7 +1676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1653,7 +1693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1670,7 +1710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1687,7 +1727,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1704,7 +1744,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1721,7 +1761,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1738,7 +1778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1755,7 +1795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1772,7 +1812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1789,7 +1829,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1806,7 +1846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1823,7 +1863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1840,7 +1880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1857,7 +1897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1874,7 +1914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1891,7 +1931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1908,7 +1948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1925,7 +1965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1942,7 +1982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1959,7 +1999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1976,7 +2016,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1993,7 +2033,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2010,7 +2050,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2027,7 +2067,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2044,7 +2084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2061,7 +2101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2078,7 +2118,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2095,7 +2135,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2112,7 +2152,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2129,7 +2169,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2146,7 +2186,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2163,7 +2203,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2180,7 +2220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2197,7 +2237,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2214,7 +2254,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2231,7 +2271,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2248,7 +2288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2265,7 +2305,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2282,7 +2322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2299,7 +2339,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2316,7 +2356,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2333,7 +2373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2350,7 +2390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2367,7 +2407,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2384,7 +2424,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2401,7 +2441,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2418,7 +2458,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2435,7 +2475,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2452,7 +2492,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2469,7 +2509,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2486,7 +2526,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2503,7 +2543,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2520,8 +2560,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2535,6 +2575,614 @@
       </c>
       <c r="E88" s="1" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="1">
+        <v>103</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="1">
+        <v>103</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="1">
+        <v>103</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5BDC65-74B0-45E3-B083-02AF1D3706D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA398A-29DD-44A4-A3A6-730DA429118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="345" windowWidth="14175" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,8 +31,21 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>WUYUE</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{DF7CE4AA-0EC2-4E8D-8F9E-0EFFEA8708B9}">
+      <text/>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="196">
   <si>
     <t>long</t>
   </si>
@@ -683,13 +694,52 @@
   <si>
     <t>You did well</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1084]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1085]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1086]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1087]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1088]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1089]</t>
+  </si>
+  <si>
+    <t>[1090]</t>
+  </si>
+  <si>
+    <t>[1091]</t>
+  </si>
+  <si>
+    <t>[1092]</t>
+  </si>
+  <si>
+    <t>[1093]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +778,14 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1065,23 +1123,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1132,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1149,7 +1207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1166,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1183,7 +1241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1200,7 +1258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1217,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1234,7 +1292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1251,7 +1309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1268,7 +1326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1285,7 +1343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1302,7 +1360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1319,7 +1377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1336,7 +1394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1353,7 +1411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1370,7 +1428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1387,7 +1445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1404,7 +1462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1421,7 +1479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1438,7 +1496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1455,7 +1513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1472,7 +1530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1489,7 +1547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1506,7 +1564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1523,7 +1581,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1540,7 +1598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1557,7 +1615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1574,7 +1632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1591,7 +1649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1608,7 +1666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1625,7 +1683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1642,7 +1700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1659,7 +1717,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1676,7 +1734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1693,7 +1751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1710,7 +1768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1727,7 +1785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1744,7 +1802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1761,7 +1819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1778,7 +1836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1795,7 +1853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1812,7 +1870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1829,7 +1887,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1846,7 +1904,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1863,7 +1921,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1880,7 +1938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1897,7 +1955,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1914,7 +1972,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1931,7 +1989,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1948,7 +2006,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1965,7 +2023,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1982,7 +2040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1999,7 +2057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2016,7 +2074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2033,7 +2091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2050,7 +2108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2067,7 +2125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2084,7 +2142,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2101,7 +2159,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2118,7 +2176,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2135,7 +2193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2152,7 +2210,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2169,7 +2227,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2186,7 +2244,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2203,7 +2261,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2220,7 +2278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2237,7 +2295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2254,7 +2312,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2271,7 +2329,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2288,7 +2346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2305,7 +2363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2322,7 +2380,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2339,7 +2397,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2356,7 +2414,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2373,7 +2431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2390,7 +2448,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2407,7 +2465,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2424,7 +2482,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2441,7 +2499,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2458,7 +2516,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2475,7 +2533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2492,7 +2550,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2509,7 +2567,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2526,7 +2584,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2543,7 +2601,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2560,7 +2618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -2577,7 +2635,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2594,7 +2652,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2611,7 +2669,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2628,7 +2686,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -2641,8 +2699,11 @@
       <c r="D92" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E92" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2655,96 +2716,147 @@
       <c r="D93" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D94" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D95" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D96" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D97" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D98" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D99" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D100" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D101" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2755,7 +2867,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2766,7 +2878,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2777,7 +2889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2788,7 +2900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2799,7 +2911,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2810,7 +2922,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2821,7 +2933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2832,7 +2944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2843,7 +2955,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2854,7 +2966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2865,322 +2977,322 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3189,5 +3301,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/ConversationEffect_Data.xlsx
+++ b/GameDesign/ExcelData/ConversationEffect_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA398A-29DD-44A4-A3A6-730DA429118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC0E29-27EE-4303-9A23-4C17817EFD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="265">
   <si>
     <t>long</t>
   </si>
@@ -733,13 +733,261 @@
   </si>
   <si>
     <t>[1093]</t>
+  </si>
+  <si>
+    <t>[1094]</t>
+  </si>
+  <si>
+    <t>[1097]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1096]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1099]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Err… “The New Stamps”? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Err… “Last of the Empresses”?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, I don’t recall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1098]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1104]</t>
+  </si>
+  <si>
+    <t>Encourage Halo to open up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scold Halo for leaving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1105]</t>
+  </si>
+  <si>
+    <t>[1107]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1106]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1108]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appeal to Halo’s amiability with Echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecture Halo about insubordination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1110]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1112]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1111]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1113]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_Kicks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1115]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1116]</t>
+  </si>
+  <si>
+    <t>[1117]</t>
+  </si>
+  <si>
+    <t>[1118]</t>
+  </si>
+  <si>
+    <t>[1119]</t>
+  </si>
+  <si>
+    <t>[1120]</t>
+  </si>
+  <si>
+    <t>[1121]</t>
+  </si>
+  <si>
+    <t>[1122]</t>
+  </si>
+  <si>
+    <t>[1123]</t>
+  </si>
+  <si>
+    <t>[1124]</t>
+  </si>
+  <si>
+    <t>[1125]</t>
+  </si>
+  <si>
+    <t>D3_Kicks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1127]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1128]</t>
+  </si>
+  <si>
+    <t>[1130]</t>
+  </si>
+  <si>
+    <t>[1129]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_Spartan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1133]</t>
+  </si>
+  <si>
+    <t>[1134]</t>
+  </si>
+  <si>
+    <t>[1135]</t>
+  </si>
+  <si>
+    <t>[1136]</t>
+  </si>
+  <si>
+    <t>[1137]</t>
+  </si>
+  <si>
+    <t>D3_Echo+Halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1139]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1140]</t>
+  </si>
+  <si>
+    <t>[1141]</t>
+  </si>
+  <si>
+    <t>[1142]</t>
+  </si>
+  <si>
+    <t>[1143]</t>
+  </si>
+  <si>
+    <t>[1144]</t>
+  </si>
+  <si>
+    <t>[1145]</t>
+  </si>
+  <si>
+    <t>Finaldecision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1148]</t>
+  </si>
+  <si>
+    <t>[1147]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1149]</t>
+  </si>
+  <si>
+    <t>Continue to Fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose to Surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose to Retreat </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,14 +1026,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1126,14 +1366,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" style="1" customWidth="1"/>
@@ -2860,359 +3098,941 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D102" s="1">
         <v>103</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C103" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D103" s="1">
         <v>103</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C104" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D104" s="1">
         <v>103</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C105" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D105" s="1">
         <v>103</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D106" s="1">
         <v>103</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D107" s="1">
         <v>103</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D108" s="1">
         <v>103</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D109" s="1">
         <v>103</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D110" s="1">
         <v>103</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C111" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D111" s="1">
         <v>103</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C112" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D112" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="1">
+        <v>103</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" s="1">
+        <v>103</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D115" s="1">
+        <v>103</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" s="1">
+        <v>103</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" s="1">
+        <v>103</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" s="1">
+        <v>103</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" s="1">
+        <v>103</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" s="1">
+        <v>103</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" s="1">
+        <v>103</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122" s="1">
+        <v>103</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" s="1">
+        <v>103</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" s="1">
+        <v>103</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="1">
+        <v>103</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126" s="1">
+        <v>103</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" s="1">
+        <v>103</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" s="1">
+        <v>103</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D129" s="1">
+        <v>103</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D130" s="1">
+        <v>103</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D131" s="1">
+        <v>103</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D132" s="1">
+        <v>103</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="1">
+        <v>103</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D134" s="1">
+        <v>103</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D135" s="1">
+        <v>103</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D136" s="1">
+        <v>103</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D137" s="1">
+        <v>103</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D138" s="1">
+        <v>103</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="1">
+        <v>103</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D140" s="1">
+        <v>103</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D141" s="1">
+        <v>103</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D142" s="1">
+        <v>103</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D143" s="1">
+        <v>103</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" s="1">
+        <v>103</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D145" s="1">
+        <v>103</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D146" s="1">
+        <v>103</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D147" s="1">
+        <v>103</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D148" s="1">
+        <v>103</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D149" s="1">
+        <v>103</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D150" s="1">
+        <v>103</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D151" s="1">
+        <v>103</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D152" s="1">
+        <v>103</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D153" s="1">
+        <v>103</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D154" s="1">
+        <v>104</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D155" s="1">
+        <v>104</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
